--- a/feb_26_algorithm2.xlsx
+++ b/feb_26_algorithm2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylandegrood/Documents/GitHub/researchBinning-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED6090-03AD-ED43-91EC-DF4E4A086848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510783C-553F-FC42-9E0C-66745991089D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{95F3EC5B-9902-4925-BEAC-EB97CA41F87E}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
